--- a/data/trans_orig/P8_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF9FECE-47C5-4A3B-9ECE-7535601B283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5141CD0-5A26-432A-9DF3-5112C4A225E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DC32A2F-723A-4D22-BD72-5205EE9D1C8A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31680C79-FFE9-4DA9-9372-F3226D77371E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población con limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,03%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1690 +140,1726 @@
     <t>12,2%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>86,42%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>69,95%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>76,71%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31A6769-7960-4F71-97DC-EB54956A4EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE0A35E-FDB6-45E1-A826-F00670C272F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3009,13 +3045,13 @@
         <v>49877</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3066,13 @@
         <v>188146</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -3045,13 +3081,13 @@
         <v>172953</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3060,13 +3096,13 @@
         <v>361099</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3134,13 +3170,13 @@
         <v>28854</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3149,13 +3185,13 @@
         <v>69779</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -3164,13 +3200,13 @@
         <v>98633</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3221,13 @@
         <v>241957</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3200,13 +3236,13 @@
         <v>208365</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -3215,13 +3251,13 @@
         <v>450322</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3325,13 @@
         <v>75520</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -3304,13 +3340,13 @@
         <v>136160</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -3319,13 +3355,13 @@
         <v>211680</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3376,13 @@
         <v>539507</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>485</v>
@@ -3355,13 +3391,13 @@
         <v>502059</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1004</v>
@@ -3370,13 +3406,13 @@
         <v>1041566</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3480,13 @@
         <v>96730</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -3459,13 +3495,13 @@
         <v>164907</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>254</v>
@@ -3474,13 +3510,13 @@
         <v>261637</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3531,13 @@
         <v>647065</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>593</v>
@@ -3510,13 +3546,13 @@
         <v>618604</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1227</v>
@@ -3525,13 +3561,13 @@
         <v>1265669</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3635,13 @@
         <v>365764</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>698</v>
@@ -3617,10 +3653,10 @@
         <v>54</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>1074</v>
@@ -3629,13 +3665,13 @@
         <v>1089779</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3686,13 @@
         <v>2910780</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2599</v>
@@ -3668,25 +3704,25 @@
         <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5437</v>
       </c>
       <c r="N29" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3764,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3742,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ED9C1A-6D76-40B5-B8AF-CBA9345D4284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8F35C-0620-458D-AEA4-7625501A0688}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4063,13 @@
         <v>74870</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -4042,13 +4078,13 @@
         <v>143276</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -4057,13 +4093,13 @@
         <v>218146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4114,13 @@
         <v>430657</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -4093,13 +4129,13 @@
         <v>380489</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -4108,13 +4144,13 @@
         <v>811146</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4218,13 @@
         <v>46934</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4197,13 +4233,13 @@
         <v>79680</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4212,13 +4248,13 @@
         <v>126614</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4269,13 @@
         <v>277112</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4248,13 +4284,13 @@
         <v>261340</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>521</v>
@@ -4263,13 +4299,13 @@
         <v>538452</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4373,13 @@
         <v>103946</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -4352,13 +4388,13 @@
         <v>200971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -4367,13 +4403,13 @@
         <v>304916</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4424,13 @@
         <v>564774</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>437</v>
@@ -4403,13 +4439,13 @@
         <v>475225</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>966</v>
@@ -4418,13 +4454,13 @@
         <v>1040000</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4790,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4835,10 +4871,10 @@
         <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,10 +4922,10 @@
         <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4975,10 +5011,10 @@
         <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -4987,13 +5023,13 @@
         <v>285376</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5044,13 @@
         <v>668886</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>599</v>
@@ -5023,13 +5059,13 @@
         <v>648689</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="M26" s="7">
         <v>1219</v>
@@ -5038,13 +5074,13 @@
         <v>1317575</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5148,13 @@
         <v>501388</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>830</v>
@@ -5127,13 +5163,13 @@
         <v>901402</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1283</v>
@@ -5142,13 +5178,13 @@
         <v>1402790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5199,13 @@
         <v>2925391</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2468</v>
@@ -5178,13 +5214,13 @@
         <v>2656907</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>5224</v>
@@ -5193,13 +5229,13 @@
         <v>5582298</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1B69C6-A316-4505-9074-F51AA3367BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5642C8A2-F70D-4932-9E30-BB37DB55A73F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,13 +5439,13 @@
         <v>55105</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -5418,13 +5454,13 @@
         <v>81043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -5433,13 +5469,13 @@
         <v>136149</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5490,13 @@
         <v>238656</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -5469,7 +5505,7 @@
         <v>207660</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>332</v>
@@ -5484,7 +5520,7 @@
         <v>446315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>334</v>
@@ -5564,7 +5600,7 @@
         <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5573,13 +5609,13 @@
         <v>110043</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -5588,13 +5624,13 @@
         <v>170603</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5645,13 @@
         <v>442015</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -5624,13 +5660,13 @@
         <v>413041</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -5639,13 +5675,13 @@
         <v>855056</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5749,13 @@
         <v>42877</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -5728,13 +5764,13 @@
         <v>66540</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -5743,13 +5779,13 @@
         <v>109417</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5800,13 @@
         <v>275688</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -5779,13 +5815,13 @@
         <v>269769</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5794,13 +5830,13 @@
         <v>545457</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5904,13 @@
         <v>52651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5883,13 +5919,13 @@
         <v>101338</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -5898,13 +5934,13 @@
         <v>153989</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5955,7 @@
         <v>317313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>380</v>
@@ -6029,7 +6065,7 @@
         <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -6038,10 +6074,10 @@
         <v>48685</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>392</v>
@@ -6077,10 +6113,10 @@
         <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -6089,13 +6125,13 @@
         <v>169902</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>361</v>
@@ -6166,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6184,7 +6220,7 @@
         <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6193,13 +6229,13 @@
         <v>84855</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -6208,13 +6244,13 @@
         <v>138600</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,10 +6268,10 @@
         <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6244,13 +6280,13 @@
         <v>188260</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -6259,13 +6295,13 @@
         <v>397638</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6333,13 +6369,13 @@
         <v>88275</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -6348,10 +6384,10 @@
         <v>147380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>423</v>
@@ -6366,10 +6402,10 @@
         <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6420,13 @@
         <v>568283</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>518</v>
@@ -6399,13 +6435,13 @@
         <v>543914</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1016</v>
@@ -6414,13 +6450,13 @@
         <v>1112198</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6491,10 +6527,10 @@
         <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -6503,13 +6539,13 @@
         <v>162127</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>228</v>
@@ -6518,13 +6554,13 @@
         <v>252598</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6575,13 @@
         <v>688112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -6554,13 +6590,13 @@
         <v>664040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1277</v>
@@ -6569,13 +6605,13 @@
         <v>1352152</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6679,13 @@
         <v>470427</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>17</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>697</v>
@@ -6658,13 +6694,13 @@
         <v>802011</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>1165</v>
@@ -6673,13 +6709,13 @@
         <v>1272438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6730,13 @@
         <v>2923923</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>27</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>2641</v>
@@ -6709,13 +6745,13 @@
         <v>2742531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>5404</v>
@@ -6724,13 +6760,13 @@
         <v>5666454</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BE0307-2862-46F6-8E3F-3CCFF4705C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6624F9C5-508C-4311-A6E5-52992525F12C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6827,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6934,13 +6970,13 @@
         <v>42357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>115</v>
@@ -6949,13 +6985,13 @@
         <v>54366</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -6967,10 +7003,10 @@
         <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +7021,13 @@
         <v>217941</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>423</v>
@@ -7000,13 +7036,13 @@
         <v>217037</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>695</v>
@@ -7018,10 +7054,10 @@
         <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>48</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7125,13 @@
         <v>88890</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
@@ -7104,13 +7140,13 @@
         <v>133523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>478</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>279</v>
@@ -7119,13 +7155,13 @@
         <v>222413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7176,13 @@
         <v>430407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -7155,13 +7191,13 @@
         <v>421043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>820</v>
@@ -7170,13 +7206,13 @@
         <v>851451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7280,13 @@
         <v>43404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -7259,13 +7295,13 @@
         <v>73632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>188</v>
@@ -7274,13 +7310,13 @@
         <v>117036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7331,13 @@
         <v>278836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -7310,13 +7346,13 @@
         <v>299652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>708</v>
@@ -7325,13 +7361,13 @@
         <v>578488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7435,13 @@
         <v>61633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
@@ -7414,13 +7450,13 @@
         <v>93264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -7429,13 +7465,13 @@
         <v>154896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7486,13 @@
         <v>260607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -7465,13 +7501,13 @@
         <v>335292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -7480,13 +7516,13 @@
         <v>595900</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,10 +7593,10 @@
         <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -7572,10 +7608,10 @@
         <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -7584,13 +7620,13 @@
         <v>79448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,10 +7644,10 @@
         <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -7623,10 +7659,10 @@
         <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
@@ -7635,13 +7671,13 @@
         <v>376208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>544</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7709,13 +7745,13 @@
         <v>29395</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -7724,13 +7760,13 @@
         <v>46602</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>448</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7739,13 +7775,13 @@
         <v>75997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7796,13 @@
         <v>247828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7775,13 +7811,13 @@
         <v>229020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>455</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -7790,13 +7826,13 @@
         <v>476848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7864,13 +7900,13 @@
         <v>104528</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -7879,13 +7915,13 @@
         <v>167675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>382</v>
@@ -7894,13 +7930,13 @@
         <v>272203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7951,13 @@
         <v>523226</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>573</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -7930,13 +7966,13 @@
         <v>636528</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -7945,13 +7981,13 @@
         <v>1159754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>560</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,7 +8043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8019,13 +8055,13 @@
         <v>157284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>294</v>
@@ -8034,13 +8070,13 @@
         <v>211720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>415</v>
@@ -8049,13 +8085,13 @@
         <v>369005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8106,13 @@
         <v>702144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>768</v>
@@ -8085,13 +8121,13 @@
         <v>656714</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1409</v>
@@ -8100,13 +8136,13 @@
         <v>1358857</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>24</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8210,13 @@
         <v>551459</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>1437</v>
@@ -8189,13 +8225,13 @@
         <v>836262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>583</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="M28" s="7">
         <v>2028</v>
@@ -8204,13 +8240,13 @@
         <v>1387721</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>585</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8261,13 @@
         <v>2833769</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="H29" s="7">
         <v>3929</v>
@@ -8240,13 +8276,13 @@
         <v>2998714</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>6714</v>
@@ -8255,13 +8291,13 @@
         <v>5832483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>593</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P8_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P8_1_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5141CD0-5A26-432A-9DF3-5112C4A225E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E00D8F-B4BB-4D68-8AA0-46FAB7693FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31680C79-FFE9-4DA9-9372-F3226D77371E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2EEBB65-0EEA-411B-AA84-52777E7E4A31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1789 +77,1789 @@
     <t>11,97%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>Población con limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE0A35E-FDB6-45E1-A826-F00670C272F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120C0AF0-6585-4B1F-9638-23B040EE43A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3045,13 +3045,13 @@
         <v>49877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3066,13 @@
         <v>188146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -3081,13 +3081,13 @@
         <v>172953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3096,13 +3096,13 @@
         <v>361099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3170,13 @@
         <v>28854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3185,13 +3185,13 @@
         <v>69779</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -3200,13 +3200,13 @@
         <v>98633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3221,13 @@
         <v>241957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3236,13 +3236,13 @@
         <v>208365</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -3251,13 +3251,13 @@
         <v>450322</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3325,13 @@
         <v>75520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -3340,13 +3340,13 @@
         <v>136160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -3355,13 +3355,13 @@
         <v>211680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3376,13 @@
         <v>539507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>485</v>
@@ -3391,13 +3391,13 @@
         <v>502059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1004</v>
@@ -3406,13 +3406,13 @@
         <v>1041566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3480,13 +3480,13 @@
         <v>96730</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>152</v>
@@ -3495,13 +3495,13 @@
         <v>164907</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>254</v>
@@ -3510,13 +3510,13 @@
         <v>261637</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3531,13 @@
         <v>647065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>593</v>
@@ -3546,13 +3546,13 @@
         <v>618604</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1227</v>
@@ -3561,13 +3561,13 @@
         <v>1265669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3635,13 @@
         <v>365764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>698</v>
@@ -3653,10 +3653,10 @@
         <v>54</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>1074</v>
@@ -3665,13 +3665,13 @@
         <v>1089779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,16 +3683,16 @@
         <v>2838</v>
       </c>
       <c r="D29" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2599</v>
@@ -3704,10 +3704,10 @@
         <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5437</v>
@@ -3716,13 +3716,13 @@
         <v>5565962</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8F35C-0620-458D-AEA4-7625501A0688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D52A125-57FE-411C-80E8-E2F8DF270D82}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4063,13 @@
         <v>74870</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -4078,13 +4078,13 @@
         <v>143276</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -4093,13 +4093,13 @@
         <v>218146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>430657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -4129,13 +4129,13 @@
         <v>380489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -4144,13 +4144,13 @@
         <v>811146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4218,13 @@
         <v>46934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4233,13 +4233,13 @@
         <v>79680</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4248,7 +4248,7 @@
         <v>126614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>206</v>
@@ -4290,7 +4290,7 @@
         <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>521</v>
@@ -4299,13 +4299,13 @@
         <v>538452</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4373,13 @@
         <v>103946</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -4388,13 +4388,13 @@
         <v>200971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -4403,13 +4403,13 @@
         <v>304916</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>564774</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>437</v>
@@ -4439,13 +4439,13 @@
         <v>475225</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>966</v>
@@ -4454,13 +4454,13 @@
         <v>1040000</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4528,13 @@
         <v>34853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -4543,13 +4543,13 @@
         <v>62633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -4558,13 +4558,13 @@
         <v>97486</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4579,13 @@
         <v>177765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>152</v>
@@ -4594,13 +4594,13 @@
         <v>156958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>317</v>
@@ -4609,13 +4609,13 @@
         <v>334723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4683,13 @@
         <v>49834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -4698,13 +4698,13 @@
         <v>76009</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -4713,13 +4713,13 @@
         <v>125843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4734,13 @@
         <v>224147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -4749,13 +4749,13 @@
         <v>204022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -4764,13 +4764,13 @@
         <v>428169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4838,13 +4838,13 @@
         <v>80739</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -4853,13 +4853,13 @@
         <v>163670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4868,10 +4868,10 @@
         <v>244409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>275</v>
@@ -4889,13 +4889,13 @@
         <v>582049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>489</v>
@@ -4904,13 +4904,13 @@
         <v>530183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1032</v>
@@ -4919,13 +4919,13 @@
         <v>1112232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4993,13 +4993,13 @@
         <v>110212</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -5008,13 +5008,13 @@
         <v>175164</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -5023,13 +5023,13 @@
         <v>285376</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5044,13 @@
         <v>668886</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>599</v>
@@ -5059,13 +5059,13 @@
         <v>648689</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M26" s="7">
         <v>1219</v>
@@ -5184,7 +5184,7 @@
         <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>2925391</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2468</v>
@@ -5214,13 +5214,13 @@
         <v>2656907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>5224</v>
@@ -5229,13 +5229,13 @@
         <v>5582298</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5642C8A2-F70D-4932-9E30-BB37DB55A73F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9656D6E7-DDAA-41DB-AA19-F7D750FD0387}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5439,13 @@
         <v>55105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -5454,13 +5454,13 @@
         <v>81043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -5469,13 +5469,13 @@
         <v>136149</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5490,13 @@
         <v>238656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -5600,7 +5600,7 @@
         <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5609,13 +5609,13 @@
         <v>110043</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -5624,10 +5624,10 @@
         <v>170603</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>343</v>
@@ -5648,10 +5648,10 @@
         <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>392</v>
@@ -5660,13 +5660,13 @@
         <v>413041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -5675,13 +5675,13 @@
         <v>855056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,7 +6065,7 @@
         <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -6074,10 +6074,10 @@
         <v>48685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>392</v>
@@ -6113,10 +6113,10 @@
         <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -6125,13 +6125,13 @@
         <v>169902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>361</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6217,10 +6217,10 @@
         <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6268,10 +6268,10 @@
         <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6402,7 +6402,7 @@
         <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>425</v>
@@ -6456,7 +6456,7 @@
         <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6530,7 +6530,7 @@
         <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -6539,10 +6539,10 @@
         <v>162127</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>438</v>
@@ -6578,10 +6578,10 @@
         <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -6590,13 +6590,13 @@
         <v>664040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>1277</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6624F9C5-508C-4311-A6E5-52992525F12C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A09E86F-E8B3-4DC1-BFC4-26241605ADE1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,7 +7000,7 @@
         <v>96723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>475</v>
@@ -7051,7 +7051,7 @@
         <v>434977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>483</v>
@@ -7131,7 +7131,7 @@
         <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>200</v>
@@ -7140,13 +7140,13 @@
         <v>133523</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>279</v>
@@ -7155,13 +7155,13 @@
         <v>222413</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7176,13 @@
         <v>430407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -7191,13 +7191,13 @@
         <v>421043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>820</v>
@@ -7206,13 +7206,13 @@
         <v>851451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7280,13 @@
         <v>43404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -7295,13 +7295,13 @@
         <v>73632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>188</v>
@@ -7310,13 +7310,13 @@
         <v>117036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7331,13 @@
         <v>278836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -7346,13 +7346,13 @@
         <v>299652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>708</v>
@@ -7361,13 +7361,13 @@
         <v>578488</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7435,13 @@
         <v>61633</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
@@ -7450,13 +7450,13 @@
         <v>93264</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -7465,10 +7465,10 @@
         <v>154896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>474</v>
@@ -7486,13 +7486,13 @@
         <v>260607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -7501,13 +7501,13 @@
         <v>335292</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -7516,13 +7516,13 @@
         <v>595900</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7590,13 @@
         <v>23968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -7608,10 +7608,10 @@
         <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -7620,13 +7620,13 @@
         <v>79448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7641,13 @@
         <v>172780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -7659,10 +7659,10 @@
         <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
@@ -7671,10 +7671,10 @@
         <v>376208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>379</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7745,13 +7745,13 @@
         <v>29395</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -7760,13 +7760,13 @@
         <v>46602</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7775,13 +7775,13 @@
         <v>75997</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7796,13 @@
         <v>247828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7811,13 +7811,13 @@
         <v>229020</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -7826,13 +7826,13 @@
         <v>476848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7900,13 +7900,13 @@
         <v>104528</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -7915,13 +7915,13 @@
         <v>167675</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>382</v>
@@ -7930,13 +7930,13 @@
         <v>272203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7951,13 @@
         <v>523226</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -7966,13 +7966,13 @@
         <v>636528</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -7981,7 +7981,7 @@
         <v>1159754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>576</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>577</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8058,10 +8058,10 @@
         <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>294</v>
@@ -8070,13 +8070,13 @@
         <v>211720</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>415</v>
@@ -8085,13 +8085,13 @@
         <v>369005</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>702144</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>768</v>
@@ -8121,13 +8121,13 @@
         <v>656714</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1409</v>
@@ -8136,13 +8136,13 @@
         <v>1358857</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8210,13 @@
         <v>551459</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>1437</v>
@@ -8225,13 +8225,13 @@
         <v>836262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M28" s="7">
         <v>2028</v>
@@ -8240,10 +8240,10 @@
         <v>1387721</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>421</v>
@@ -8261,13 +8261,13 @@
         <v>2833769</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H29" s="7">
         <v>3929</v>
@@ -8276,13 +8276,13 @@
         <v>2998714</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>606</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="M29" s="7">
         <v>6714</v>
@@ -8291,13 +8291,13 @@
         <v>5832483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>606</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
